--- a/SUMMARY.xlsx
+++ b/SUMMARY.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyjiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyjiao/Desktop/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473456E-6C68-C34D-A7AD-37892AA92F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1819961-E59F-6040-8D97-E8A1D192BF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{6C79275D-9EB2-B74C-B8FF-D8E9AEBD7433}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -108,13 +108,22 @@
   </si>
   <si>
     <t>BRK.B</t>
+  </si>
+  <si>
+    <t>307.53 → 297.84</t>
+  </si>
+  <si>
+    <t>maintain</t>
+  </si>
+  <si>
+    <t>Hold → Hold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +145,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +168,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,12 +200,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,8 +232,12 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7C0DB2-D49F-5A49-A7CD-AA1B9F21ECFA}">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,25 +622,25 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
-        <v>44948</v>
+        <v>44950</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.19789999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.2432</v>
       </c>
       <c r="E4" s="7">
-        <v>0.1138</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>0.111</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
@@ -622,16 +648,16 @@
         <v>44948</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
-        <v>0.21909999999999999</v>
-      </c>
-      <c r="E5" s="8">
-        <v>9.9500000000000005E-2</v>
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.1138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -642,19 +668,19 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>0.23719999999999999</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.1051</v>
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
@@ -668,85 +694,85 @@
         <v>44947</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>9.4E-2</v>
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.1051</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4">
-        <v>0.2802</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.1143</v>
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9.4E-2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
-        <v>0.1007</v>
-      </c>
-      <c r="E9" s="8">
-        <v>8.8900000000000007E-2</v>
+        <v>0.2802</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.1143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.1014</v>
+        <v>0.1007</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8.8900000000000007E-2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
@@ -755,9 +781,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>44944</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.1014</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tA5/gh9JTBmzbsthEJGymrQKVZYzA/jGSiWdHxl+CjJcVJ+JnHDB0Zh90lh8sFUzHv2scO3Yv2S/Xvqz7Ar4XQ==" saltValue="3+GTFJpkt5+YajqRIiwaeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <conditionalFormatting sqref="D4:D10">
+  <sheetProtection selectLockedCells="1"/>
+  <conditionalFormatting sqref="D5:D11">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>

--- a/SUMMARY.xlsx
+++ b/SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyjiao/Desktop/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1819961-E59F-6040-8D97-E8A1D192BF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC590CE8-5E8C-B742-A8A8-A05885049899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{6C79275D-9EB2-B74C-B8FF-D8E9AEBD7433}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15660" xr2:uid="{6C79275D-9EB2-B74C-B8FF-D8E9AEBD7433}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Hold → Hold</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>→ 432.66</t>
   </si>
 </sst>
 </file>
@@ -583,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7C0DB2-D49F-5A49-A7CD-AA1B9F21ECFA}">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B3:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,48 +628,48 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>0.2432</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.111</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
-        <v>44948</v>
+        <v>44950</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.19789999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.2432</v>
       </c>
       <c r="E5" s="7">
-        <v>0.1138</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>0.111</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -671,16 +677,16 @@
         <v>44948</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
-        <v>0.21909999999999999</v>
-      </c>
-      <c r="E6" s="8">
-        <v>9.9500000000000005E-2</v>
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.1138</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
@@ -691,19 +697,19 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
-        <v>0.23719999999999999</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.1051</v>
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9.9500000000000005E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -717,85 +723,85 @@
         <v>44947</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="E8" s="8">
-        <v>9.4E-2</v>
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.1051</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>8</v>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>0.2802</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.1143</v>
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>9.4E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
+      <c r="H9" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>0.1007</v>
-      </c>
-      <c r="E10" s="8">
-        <v>8.8900000000000007E-2</v>
+        <v>0.2802</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.1143</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.1014</v>
+        <v>0.1007</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8.8900000000000007E-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
@@ -804,9 +810,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>44944</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.1014</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <conditionalFormatting sqref="D5:D11">
+  <conditionalFormatting sqref="D6:D12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
